--- a/1015-E.164B/T-SP-E.164B-2012.xlsx
+++ b/1015-E.164B/T-SP-E.164B-2012.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mulgogi/src/ituob/service-publications-data/1060-M.1400/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mulgogi/src/ituob/service-publications-data/1015-E.164B/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBADCFA3-478B-2A4F-9FF1-6B43BBBC09EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C609E9-365D-3A43-81A0-9332FB6B3218}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="30320" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="30320" windowHeight="20880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T-SP-M.1400-2014" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18315" uniqueCount="9677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18316" uniqueCount="9678">
   <si>
     <t>METADATA</t>
   </si>
@@ -29061,6 +29061,9 @@
   </si>
   <si>
     <t>+263 4 731980</t>
+  </si>
+  <si>
+    <t>type=array</t>
   </si>
 </sst>
 </file>
@@ -29914,8 +29917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P1246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30560,6 +30563,9 @@
       <c r="A81" t="s">
         <v>7</v>
       </c>
+      <c r="B81" t="s">
+        <v>9677</v>
+      </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
